--- a/DevOps Lab Project/System_Test_Report_Group3.xlsx
+++ b/DevOps Lab Project/System_Test_Report_Group3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB140E78-5A9C-4B3C-A408-87D1744E84F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF681E1-CBD8-43AD-8FCD-063073F12FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
   <si>
     <t>Total Test Cases</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Test Result</t>
   </si>
   <si>
-    <t>REQ-06</t>
+    <t>REQ-example</t>
   </si>
   <si>
     <t>Mid Impact</t>
@@ -84,18 +84,12 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>REQ-01</t>
   </si>
   <si>
     <t>High Impact</t>
   </si>
   <si>
-    <t>Low Impact</t>
-  </si>
-  <si>
-    <t>REQ-01</t>
-  </si>
-  <si>
     <t>Test that the sign up page is generated.</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>Once accessing the website, select the option 'sign in'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The login page displaying Email address and Password should be generated. </t>
+  </si>
+  <si>
+    <t>The login page displaying Email address and Password should be generated.</t>
   </si>
   <si>
     <r>
@@ -134,30 +134,30 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">The login page displaying Email address and Password should be generated. </t>
+    <t>Low Impact</t>
   </si>
   <si>
     <t>Test that the verification code is generated.</t>
   </si>
   <si>
+    <t>The user should fill in their email address and password correctly in the sign in page</t>
+  </si>
+  <si>
     <t>Access the verification code sent to their email and enter it in the sign in page</t>
   </si>
   <si>
-    <t>The user should fill in their email address and password correctly in the sign in page</t>
-  </si>
-  <si>
     <t xml:space="preserve">      REQ-04</t>
   </si>
   <si>
+    <t>Test that engine can be switched on.</t>
+  </si>
+  <si>
+    <t>Engine is switched off.</t>
+  </si>
+  <si>
     <t>After the login page, select the red button "start engine".</t>
   </si>
   <si>
-    <t>Test that engine can be switched on.</t>
-  </si>
-  <si>
-    <t>Engine is switched off.</t>
-  </si>
-  <si>
     <t>The engine is switched on and page should redirect to the main menu.</t>
   </si>
   <si>
@@ -176,18 +176,24 @@
     <t>The page redirects to display the main menu consisting of car temperature, fuel level, car theft warning, car door status and air conditioning temperature.</t>
   </si>
   <si>
+    <t xml:space="preserve">     REQ-06</t>
+  </si>
+  <si>
     <t>Test that the door lock function works.</t>
   </si>
   <si>
+    <t>The door status is unlocked/no status shown.</t>
+  </si>
+  <si>
     <t>Select the button 'Lock' in the main menu under car door.</t>
   </si>
   <si>
-    <t>The door status is unlocked/no status shown.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The 'Lock' button turns red when selected and remains red to display that the car door is locked.  </t>
   </si>
   <si>
+    <t xml:space="preserve">    REQ-07</t>
+  </si>
+  <si>
     <t>Test that the door unlock function works.</t>
   </si>
   <si>
@@ -200,6 +206,9 @@
     <t xml:space="preserve">The 'Unlock' button turns red when selected and remains red to display that the car door is locked.  </t>
   </si>
   <si>
+    <t xml:space="preserve">    REQ-08</t>
+  </si>
+  <si>
     <t>Test that the air conditioning function works.</t>
   </si>
   <si>
@@ -209,7 +218,7 @@
     <t>Enter desired temperature in the box under air conditioning temperature and press enter.</t>
   </si>
   <si>
-    <t>The desired temperature is displayed in the box.</t>
+    <t xml:space="preserve">    REQ-09</t>
   </si>
   <si>
     <t>Test that the car theft warning function works</t>
@@ -218,28 +227,61 @@
     <t>The car theft warning displays 'Not Triggered' and the car door status is 'Locked'.</t>
   </si>
   <si>
-    <t>The doors of the car is forcefully opened.</t>
-  </si>
-  <si>
-    <t>The car theft warning displays 'Triggered' and the buzzer alarm is activated at 50Hz until user turns it off by entering '1' on the keyboard.</t>
-  </si>
-  <si>
-    <t>REQ-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     REQ-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    REQ-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    REQ-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    REQ-09</t>
-  </si>
-  <si>
-    <t>The login page displaying Email address and Password should be generated.</t>
+    <t>Test that at least 2 different drivers can share the vehicle using 2 separate RFID cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test that current temperature of the car is displayed in the menu. </t>
+  </si>
+  <si>
+    <t>The main menu is displayed.</t>
+  </si>
+  <si>
+    <t>Access the main menu by logging in.</t>
+  </si>
+  <si>
+    <t>At the top of the main menu, the temperature should have the current temperature of the car displayed.</t>
+  </si>
+  <si>
+    <t>Test that current fuel level of the car is displayed in the menu.</t>
+  </si>
+  <si>
+    <t>In the main menu, below the car temperature, fuel level should be displayed with the current fuel level of the car.</t>
+  </si>
+  <si>
+    <t>Test that the additional car theft warning function using the ultrasonic sensor works.</t>
+  </si>
+  <si>
+    <t>There is movement in the car that is observed by the ultrasonic sensor via change in distance between sensor and car seats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the main menu, car theft warning displays 'Triggered' and the buzzer alarm is activated at 50Hz until user turns it off by entering '1' on the keyboard. </t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>The desired temperature is displayed in the box. The LED switches on and displays a specific brightness depending on the value. (The lower the temperature, the lower the brightness)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The desired temperature is displayed in the box. The LED switches on and displays a specific brightness depending on the value. (The lower the temperature, the lower the brightness) </t>
+  </si>
+  <si>
+    <t>Simulate doors of the car being forcefully opened by switching on the switch.</t>
+  </si>
+  <si>
+    <t>In the main menu, car theft warning displays 'Triggered' and the buzzer alarm is activated at 50Hz until user turns it off by toggling the switch off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQ 10 (Additional function) </t>
+  </si>
+  <si>
+    <t>REQ 11</t>
+  </si>
+  <si>
+    <t>REQ 12</t>
+  </si>
+  <si>
+    <t>REQ-??</t>
   </si>
 </sst>
 </file>
@@ -643,13 +685,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,7 +1718,7 @@
       </c>
       <c r="C4" s="10">
         <f>COUNTIF('Test Cases &amp; Results'!K3:K72, "Pass")</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -1694,7 +1736,7 @@
       </c>
       <c r="C6" s="10">
         <f>COUNTIF('Test Cases &amp; Results'!K3:K72, "Not Tested")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1751,7 @@
   <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1797,25 +1839,25 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>19</v>
@@ -1828,25 +1870,25 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>19</v>
@@ -1862,16 +1904,16 @@
         <v>32</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -1892,13 +1934,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>41</v>
@@ -1948,25 +1990,25 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="22" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>19</v>
@@ -1979,101 +2021,107 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="21" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="116" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="K12" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -2082,55 +2130,97 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="87" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="D14" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="K14" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="D15" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="K15" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="116" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="D16" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="K16" s="12" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
@@ -2284,7 +2374,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
@@ -2304,7 +2394,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2314,31 +2404,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E81D8C8DDAE8BD44A422697963F06C45" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f10d8a3ee1bfb88bd4b443341a89bda">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2b02348f-b4e3-458c-83fc-9e90db0f8029" xmlns:ns3="baa65994-198a-4305-9eb4-bcca47059ee1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="223d8c4ae5f18cc8daa48fb6fea51838" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="2b02348f-b4e3-458c-83fc-9e90db0f8029"/>
-    <xsd:import namespace="baa65994-198a-4305-9eb4-bcca47059ee1"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017BED835917F1C49B826626DF4E80A6F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="921559c54af34e536ac6652904eddf3b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ca95b514-549f-4ce9-8d54-7ff35c80f5fb" xmlns:ns4="8db07a7d-6cf8-4260-af28-d0e1945cfd30" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a14e9bec9bfc5f69ad3a5aa6aa074285" ns3:_="" ns4:_="">
+    <xsd:import namespace="ca95b514-549f-4ce9-8d54-7ff35c80f5fb"/>
+    <xsd:import namespace="8db07a7d-6cf8-4260-af28-d0e1945cfd30"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2346,80 +2434,66 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca95b514-549f-4ce9-8d54-7ff35c80f5fb" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_activity" ma:index="8" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2b02348f-b4e3-458c-83fc-9e90db0f8029" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="17" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="baa65994-198a-4305-9eb4-bcca47059ee1" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8db07a7d-6cf8-4260-af28-d0e1945cfd30" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2438,11 +2512,16 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="15" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2548,8 +2627,7 @@
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="ca95b514-549f-4ce9-8d54-7ff35c80f5fb" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
@@ -2564,15 +2642,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FED5CF9C-0919-4300-80E5-70600B6F1FCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{438AB6FC-2AB7-4105-883E-70FD97FEAAFB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="2b02348f-b4e3-458c-83fc-9e90db0f8029"/>
-    <ds:schemaRef ds:uri="baa65994-198a-4305-9eb4-bcca47059ee1"/>
+    <ds:schemaRef ds:uri="ca95b514-549f-4ce9-8d54-7ff35c80f5fb"/>
+    <ds:schemaRef ds:uri="8db07a7d-6cf8-4260-af28-d0e1945cfd30"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2586,9 +2663,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DB72C7-DF0B-4E18-8174-00AB852E6FB4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ca95b514-549f-4ce9-8d54-7ff35c80f5fb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8db07a7d-6cf8-4260-af28-d0e1945cfd30"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
